--- a/AED/Labs/Lab5/src/Book1.xlsx
+++ b/AED/Labs/Lab5/src/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\quio\LEEC\AED\Labs\Lab5\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F001F0C5-CA1D-4793-8510-38EC02C5DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F23B9-1AD8-4E16-858A-232F84B3C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="16440" xr2:uid="{D580239D-5CAA-44F4-BFE5-D205E5D522FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D580239D-5CAA-44F4-BFE5-D205E5D522FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Acessos</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>doc3 default</t>
+  </si>
+  <si>
+    <t>Acessos/N</t>
   </si>
 </sst>
 </file>
@@ -114,6 +117,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bubble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -508,7 +540,959 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>QSort / N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9173228346456686E-3"/>
+                  <c:y val="0.23025590551181102"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42.169665809768638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.046511627906977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.62857142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.41988950276243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.316698656429942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.810218978102188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.075471698113208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.328185328185327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.550387596899224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.266494178525228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.600258732212161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-404B-4B6B-9805-B6A3B4900088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1817757168"/>
+        <c:axId val="1817759664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1817757168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817759664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1817759664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817757168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>QSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>16404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8161-4E87-89C7-E4B3799A1D40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1961115136"/>
+        <c:axId val="1961113472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1961115136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961113472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1961113472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961115136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1064,20 +2048,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1097,6 +3113,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AE54B2-D961-E7CF-519A-B1621F7FA58A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30CB029-F9E3-689D-C713-1965D3B09911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1402,10 +3490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21420651-D516-43E7-81B5-F4F424584BED}">
-  <dimension ref="C5:F19"/>
+  <dimension ref="C5:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,17 +3503,28 @@
     <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>2</v>
       </c>
@@ -1435,109 +3534,249 @@
       <c r="F6">
         <v>304392</v>
       </c>
+      <c r="H6">
+        <v>389</v>
+      </c>
+      <c r="I6">
+        <v>16404</v>
+      </c>
+      <c r="J6">
+        <f>I6/H6</f>
+        <v>42.169665809768638</v>
+      </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>43</v>
       </c>
       <c r="F7">
         <v>3358</v>
       </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>948</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>22.046511627906977</v>
+      </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J19" si="0">I8/H8</f>
+        <v>15.2</v>
+      </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>35</v>
       </c>
       <c r="F9">
         <v>2456</v>
       </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>722</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>20.62857142857143</v>
+      </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
         <v>72</v>
       </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>122</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>181</v>
       </c>
       <c r="F11">
         <v>61876</v>
       </c>
+      <c r="H11">
+        <v>181</v>
+      </c>
+      <c r="I11">
+        <v>6954</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>38.41988950276243</v>
+      </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>521</v>
       </c>
       <c r="F12">
         <v>551996</v>
       </c>
+      <c r="H12">
+        <v>521</v>
+      </c>
+      <c r="I12">
+        <v>19442</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>37.316698656429942</v>
+      </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>137</v>
       </c>
       <c r="F13">
         <v>38402</v>
       </c>
+      <c r="H13">
+        <v>137</v>
+      </c>
+      <c r="I13">
+        <v>3810</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>27.810218978102188</v>
+      </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>53</v>
       </c>
       <c r="F14">
         <v>5366</v>
       </c>
+      <c r="H14">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>1276</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>24.075471698113208</v>
+      </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>7.333333333333333</v>
+      </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>259</v>
       </c>
       <c r="F16">
         <v>131512</v>
       </c>
+      <c r="H16">
+        <v>259</v>
+      </c>
+      <c r="I16">
+        <v>9150</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>35.328185328185327</v>
+      </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>129</v>
       </c>
       <c r="F17">
         <v>31680</v>
       </c>
+      <c r="H17">
+        <v>129</v>
+      </c>
+      <c r="I17">
+        <v>3812</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>29.550387596899224</v>
+      </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>773</v>
       </c>
       <c r="F18">
         <v>1178506</v>
       </c>
+      <c r="H18">
+        <v>773</v>
+      </c>
+      <c r="I18">
+        <v>32672</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>42.266494178525228</v>
+      </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>773</v>
       </c>
       <c r="F19">
         <v>1177072</v>
+      </c>
+      <c r="H19">
+        <v>773</v>
+      </c>
+      <c r="I19">
+        <v>34476</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>44.600258732212161</v>
       </c>
     </row>
   </sheetData>
